--- a/总结文档/G06事务提醒系统测试用例.xlsx
+++ b/总结文档/G06事务提醒系统测试用例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>系统模块</t>
   </si>
@@ -22,6 +22,9 @@
     <t>功能点</t>
   </si>
   <si>
+    <t>测试规则</t>
+  </si>
+  <si>
     <t>用例编号</t>
   </si>
   <si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t>注册</t>
+  </si>
+  <si>
+    <t>单元测试+集成测试（界面操作测试）</t>
   </si>
   <si>
     <t>0.0.1</t>
@@ -378,10 +384,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -398,8 +404,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -415,7 +443,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,26 +470,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -459,60 +494,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -536,6 +519,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -551,187 +557,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -773,6 +779,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -797,13 +832,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,24 +862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -855,21 +876,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -878,10 +884,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,133 +896,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1352,31 +1358,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I1" sqref="I$1:J$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" style="1" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="17.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="13.75" style="1" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1404,527 +1411,604 @@
       <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="27" spans="1:9">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:10">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" ht="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" ht="40.5" spans="1:10">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" ht="51" spans="1:9">
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" ht="51" spans="1:10">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" ht="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" ht="51" spans="1:10">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" ht="27" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:9">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="54" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" ht="54" spans="1:9">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="1" t="s">
-        <v>32</v>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="54" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="1" t="s">
-        <v>36</v>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" ht="54" spans="1:8">
+        <v>42</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:9">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="40.5" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" ht="40.5" spans="1:9">
       <c r="A10" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" ht="27" spans="1:8">
+        <v>53</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="1:9">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="1" t="s">
-        <v>52</v>
+      <c r="C11" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" ht="54" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" ht="54" spans="1:9">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="1" t="s">
-        <v>57</v>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" ht="67.5" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" ht="67.5" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" ht="40.5" spans="1:8">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" ht="40.5" spans="1:9">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" ht="40.5" spans="1:9">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="1" t="s">
-        <v>70</v>
+      <c r="C15" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" ht="40.5" spans="1:7">
+        <v>74</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:9">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:7">
+        <v>79</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:8">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="1" t="s">
-        <v>79</v>
+      <c r="C17" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" ht="27" spans="1:7">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" spans="1:8">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
+      <c r="C18" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" ht="40.5" spans="1:7">
+        <v>88</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" ht="40.5" spans="1:8">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" ht="54" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="54" spans="1:8">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="1" t="s">
-        <v>93</v>
+      <c r="C20" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:7">
+        <v>98</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" ht="40.5" spans="1:8">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="1" t="s">
-        <v>98</v>
+      <c r="C21" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" ht="67.5" spans="1:7">
+        <v>102</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" ht="67.5" spans="1:8">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="1" t="s">
-        <v>101</v>
+      <c r="C22" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" ht="40.5" spans="1:7">
+        <v>104</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="1:8">
       <c r="A23" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" spans="1:8">
+      <c r="A24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" ht="40.5" spans="1:7">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" ht="40.5" spans="1:7">
+      <c r="H24" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" ht="40.5" spans="1:8">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>118</v>
+        <v>15</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:1">
